--- a/src/main/resources/data/raw data/2023/노원구/재무과/2023. 8. 업무추진비 사용내역(재무과).xlsx
+++ b/src/main/resources/data/raw data/2023/노원구/재무과/2023. 8. 업무추진비 사용내역(재무과).xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\재무과 서무\업무추진비 공개\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\JavaProject\work\FreeMeal\src\main\resources\data\raw data\2023\노원구\재무과\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587DC5B7-5914-4915-B337-58DFFFEE3709}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320D6E60-99F1-426B-9C41-3B51D7384481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empty" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
   <si>
     <t>연번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,10 +254,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2023. 8. 25. 12:29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>북경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023. 8. 29. 13:01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하나샤브샤브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,30 +306,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023. 8. 22. 19:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>㈜글로비엣 포메인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023. 8. 18. 12:17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전민규의 황제누룽지탕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023. 8. 11. 12:21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 8. 11. 12:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -344,34 +333,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023. 8. 7. 12:27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어장촌 생선구이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023. 8. 7. 12:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 8. 8. 12:29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 8. 3. 12:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>투썸플레이스 노원구청점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023. 8. 1. 12:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비엔나커피하우스 노원역점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,10 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023. 8. 3. 20:04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>돈대지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,30 +379,6 @@
   </si>
   <si>
     <t>18</t>
-  </si>
-  <si>
-    <t>2023. 8. 1. 12:09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 8. 8. 12:21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 8. 30. 12:41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 8. 3. 12:23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 8. 9. 12:27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 8. 31. 12:19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대상인원 수
@@ -447,6 +388,54 @@
   <si>
     <t>금액 
 (단위:원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 8. 1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 8. 3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 8. 7.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 8. 8.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 8. 9.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 8. 11.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 8. 18.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 8. 22.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 8. 25.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 8. 29.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 8. 30.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 8. 31.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,12 +798,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -826,16 +815,13 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,16 +842,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -886,49 +872,34 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,6 +910,21 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,9 +944,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -998,7 +984,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1104,7 +1090,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1246,7 +1232,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1257,414 +1243,414 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="43.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="23" t="s">
+      <c r="F3" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="33">
+        <v>52500</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="E5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="18">
+        <v>25500</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="18">
+        <v>132000</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="18">
+        <v>34200</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="18">
+        <v>235000</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="34">
+        <v>89000</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="34">
+        <v>39100</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="34">
+        <v>73000</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="27">
+        <v>31500</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="31">
+        <v>6</v>
+      </c>
+      <c r="G13" s="34">
+        <v>92000</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="39">
-        <v>52500</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="D14" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="19">
-        <v>25500</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="19">
-        <v>132000</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="19">
-        <v>34200</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="19">
-        <v>235000</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="40">
-        <v>89000</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="40">
-        <v>39100</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="40">
-        <v>73000</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="33">
-        <v>31500</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="37">
-        <v>6</v>
-      </c>
-      <c r="G13" s="40">
-        <v>92000</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7">
         <v>120000</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>63</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7">
         <v>37500</v>
@@ -1672,211 +1658,211 @@
       <c r="H15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:9" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A16" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="7">
         <v>96000</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7">
         <v>85500</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>71</v>
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A18" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7">
         <v>58000</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>72</v>
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7">
         <v>184000</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>73</v>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A20" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7">
         <v>116000</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>74</v>
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7">
         <v>140000</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="25">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="24">
         <f>SUM(G4:G21)</f>
         <v>1640800</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="F23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="F24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="F25" s="8"/>
       <c r="H25" s="8"/>
